--- a/_Project/_ProjectF/엑셀파일/DB/DB_UI흐름.xlsx
+++ b/_Project/_ProjectF/엑셀파일/DB/DB_UI흐름.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share-422\_Final - 경매 + 쇼핑몰 (아나바다.ver2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34186448-E0B5-42CC-8283-644F459D714D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6E06B6-97BF-487D-838F-C8B7FFFC733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{6FB1D22E-C8F3-45D7-93BE-E507D12F8317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{6FB1D22E-C8F3-45D7-93BE-E507D12F8317}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,21 @@
     <sheet name="경고" sheetId="15" r:id="rId6"/>
     <sheet name="판매물품" sheetId="3" r:id="rId7"/>
     <sheet name="카테고리" sheetId="18" r:id="rId8"/>
-    <sheet name="이미지" sheetId="4" r:id="rId9"/>
-    <sheet name="입찰기록" sheetId="5" r:id="rId10"/>
-    <sheet name="주문" sheetId="21" r:id="rId11"/>
-    <sheet name="결제" sheetId="22" r:id="rId12"/>
-    <sheet name="운송장" sheetId="20" r:id="rId13"/>
-    <sheet name="환불" sheetId="19" r:id="rId14"/>
-    <sheet name="리뷰" sheetId="16" r:id="rId15"/>
-    <sheet name="구매현황" sheetId="6" r:id="rId16"/>
-    <sheet name="관심물품" sheetId="8" r:id="rId17"/>
-    <sheet name="문의사항" sheetId="9" r:id="rId18"/>
-    <sheet name="채팅방" sheetId="23" r:id="rId19"/>
-    <sheet name="채팅 메시지" sheetId="24" r:id="rId20"/>
-    <sheet name="UI흐름" sheetId="10" r:id="rId21"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId22"/>
+    <sheet name="카테고리_분류코드" sheetId="25" r:id="rId9"/>
+    <sheet name="이미지" sheetId="4" r:id="rId10"/>
+    <sheet name="입찰기록" sheetId="5" r:id="rId11"/>
+    <sheet name="주문" sheetId="21" r:id="rId12"/>
+    <sheet name="결제" sheetId="22" r:id="rId13"/>
+    <sheet name="운송장" sheetId="20" r:id="rId14"/>
+    <sheet name="환불" sheetId="19" r:id="rId15"/>
+    <sheet name="리뷰" sheetId="16" r:id="rId16"/>
+    <sheet name="구매현황" sheetId="6" r:id="rId17"/>
+    <sheet name="관심물품" sheetId="8" r:id="rId18"/>
+    <sheet name="문의사항" sheetId="9" r:id="rId19"/>
+    <sheet name="채팅방" sheetId="23" r:id="rId20"/>
+    <sheet name="채팅 메시지" sheetId="24" r:id="rId21"/>
+    <sheet name="UI흐름" sheetId="10" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="590">
   <si>
     <t>NULL</t>
   </si>
@@ -1008,10 +1009,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ENUM('user','admin')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DB명 : Seller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1056,19 +1053,918 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : Buyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매상품갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매용 개인/브랜드 프로필 구현 시 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체구매액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제완료율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매용 개인/브랜드 프로필 구현 시 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : admin_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canManageIndivisual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canManageBrand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canManageFinances</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warnNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warnDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(userNo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewCreatedDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewUpdatedDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(2,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check(레이팅 1.0이상 5.0이하)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰된 아이템만 리뷰 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyerNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK, FK(userNo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매물품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 or 브랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위카테고리번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cateNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대/중/소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(seller.userNo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemAvgRating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(2,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemQuantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemViewCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰가 추가되면 계산되어 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('expired', 'active', 'sold')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemQuality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemSaleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 or 쇼핑몰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('auction','shop')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL=무기한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : refund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeCreatedDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeUpdatedDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyerItemCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyerTotalPurc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyerGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerItemCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerTransCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerTotalSales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessRegNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refundNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewRating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(buyer.userNo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 저장 (자주 참조되므로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 저장 (")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('item','seller')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('user_to_user','user_to_admin')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의/건의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senderNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(userNo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비공개여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qIsPrivate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>responderNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiverNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : shipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발송일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기,발송,운송중,도착,실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('waiting','shipped','in_transit','delivered','failed')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderShipFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderPayDeadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제마감기한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pending'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('pending','paid')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 관련 추가 컬럼 재고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : chat_room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user1No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('active','closed')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막메시지일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : chat_message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발신자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읽음여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgIsRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하0, 중1, 상2, 브랜드NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refundStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('requested','rejected','completed')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requested'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refundDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refundReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warnReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warnStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM(ENUM('requested','rejected','approved')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('pending','paid','rejected')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryParentNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payCancelledDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payCompletedDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refundProcessedDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warnProcessedDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>경고횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
+    <t>userWarnCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomLastMsgDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indivisual'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1076,131 +1972,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DB명 : Buyer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매상품갯수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매용 개인/브랜드 프로필 구현 시 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체구매액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙찰률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제완료율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매용 개인/브랜드 프로필 구현 시 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : admin_permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canManageIndivisual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canManageBrand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canManageFinances</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warnNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warnDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발행일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warnDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK(userNo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewNo</t>
+    <t>입찰일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL=브랜드구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인(포인트) 결제방식만 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(categoryNo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waiting'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1208,139 +2004,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작성일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewCreatedDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewUpdatedDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL(2,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check(레이팅 1.0이상 5.0이하)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰된 아이템만 리뷰 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyerNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK, FK(userNo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>favorType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매물품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 or 브랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cateParentNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cateName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cateLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대/중/소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위카테고리번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=대 2=중 3=소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cateNo</t>
+    <t>bidNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1352,551 +2016,385 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대/중/소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK(seller.userNo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemAvgRating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL(2,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemQuantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemViewCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰가 추가되면 계산되어 업데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('expired', 'active', 'sold')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemStartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemSaleType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매 or 쇼핑몰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('auction','shop')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL=무기한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : refund</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticeNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticeTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticeContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticeCreatedDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticeUpdatedDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyerItemCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyerTotalPurc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyerWarnCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyerGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerItemCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerTransCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerTotalSales</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerWarnCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessRegNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refundNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewRating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK(buyer.userNo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 저장 (자주 참조되므로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 저장 (")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('item','seller')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('user_to_user','user_to_admin')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의/건의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>senderNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK(userNo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비공개여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qIsPrivate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>responderNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiverNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운송장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : shipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운송상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발송일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도착일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기,발송,운송중,도착,실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('waiting','shipped','in_transit','delivered','failed')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliveredDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shippedDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접수일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipCreatedDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낙찰번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경매의 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운송비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderShipFee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderPayDeadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제마감기한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pending'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('pending','paid')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payMethod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paidDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payCreatedDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancelledDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('card','bank','point')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 관련 추가 컬럼 재고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : chat_room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user1No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user2No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅방상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roomStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('active','closed')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막메시지일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastMsgDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roomCreatedDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : chat_message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅 메시지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅방번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발신자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roomNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgSendDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>읽음여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgIsRead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하0, 중1, 상2, 브랜드NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
+    <t>ENUM('indivisual','admin','brand')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 10200305 =&gt; 10200300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드or경매/여성or남성/중/소분류
+기준: 2자리 구분
+ex) 10200305 =&gt; 10, 20, 03, 05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=브랜드or경매 2=여성or남성 3=중 4=소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>보세(경매)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아우터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스커트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패션소품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>블루종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레더 재킷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카디건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트러커 재킷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블레이저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타디움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나일론/아노락 재킷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사파리/헌팅 재킷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트/패딩베스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숏패딩/숏헤비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼/무스탕/플리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱패딩/롱헤비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숏코트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱코트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트렌치코트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>맨투맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셔츠/블라우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴소매 티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반소매 티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카라 티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민소매 티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬랙스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레깅스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프슈트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메신저맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크로스백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숄더백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토트백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스턴백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클러치백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머플러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주얼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스니커즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패딩/퍼 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부츠/워커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샌들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬리퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1904,7 +2402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1968,8 +2466,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2035,8 +2541,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2044,8 +2556,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2058,8 +2588,11 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2123,14 +2656,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="4" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="경고문" xfId="4" builtinId="11"/>
     <cellStyle name="좋음" xfId="3" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준_사용자" xfId="1" xr:uid="{7CA615C8-AAB9-44C5-ADE5-943497651E4D}"/>
@@ -2452,13 +3049,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B297F6-A450-429A-BA9F-57306E19D8EA}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
@@ -2471,11 +3068,11 @@
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2487,7 +3084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2534,7 +3131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2578,41 +3175,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>236</v>
+        <v>469</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>237</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>239</v>
+        <v>492</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>238</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="21" t="s">
+        <v>475</v>
+      </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="B5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2626,7 +3227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2643,7 +3244,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2660,7 +3261,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2674,7 +3275,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2688,7 +3289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2705,7 +3306,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2721,6 +3322,25 @@
       <c r="G12" t="s">
         <v>174</v>
       </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2735,25 +3355,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EFDD6C-F0EF-4C8C-9E84-F1C678D3A609}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A792E0B4-3461-4F02-B828-3516C74AB385}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="21"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2763,7 +3384,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2786,24 +3407,21 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -2823,14 +3441,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2846,35 +3461,21 @@
       <c r="E4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2888,29 +3489,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3736D33E-80AC-43C7-A50D-44616A65F633}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EFDD6C-F0EF-4C8C-9E84-F1C678D3A609}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2932,13 +3539,25 @@
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>406</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -2952,10 +3571,22 @@
       <c r="G3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -2964,131 +3595,58 @@
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
       </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
       <c r="E5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>481</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C8" t="s">
-        <v>421</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>410</v>
-      </c>
-      <c r="B9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>414</v>
-      </c>
-      <c r="B10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>417</v>
-      </c>
-      <c r="B12" t="s">
-        <v>416</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
+        <v>478</v>
+      </c>
+      <c r="F7" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -3101,29 +3659,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE21629-CEE3-414A-8B1C-A313650A7767}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3736D33E-80AC-43C7-A50D-44616A65F633}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3146,12 +3704,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -3166,12 +3724,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -3183,78 +3741,140 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>479</v>
+      </c>
+      <c r="G5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F8" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
+      <c r="F12" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3267,29 +3887,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F974D4-FDA7-4E45-8A78-2C87CFB608CF}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE21629-CEE3-414A-8B1C-A313650A7767}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D1" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>484</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3312,12 +3934,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -3332,105 +3954,89 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>408</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>456</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F5" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>397</v>
-      </c>
-      <c r="B10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -3443,29 +4049,29 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0A7AF-BB12-47CD-8611-1CE0DDC4CAFD}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F974D4-FDA7-4E45-8A78-2C87CFB608CF}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3488,12 +4094,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -3508,12 +4114,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -3525,12 +4131,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -3542,18 +4148,83 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="G7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3566,31 +4237,31 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB896E98-11E6-41A5-AD28-910EFB397851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0A7AF-BB12-47CD-8611-1CE0DDC4CAFD}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -3611,18 +4282,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -3631,123 +4302,117 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>437</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="E6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>449</v>
       </c>
       <c r="D7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>446</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>438</v>
+      </c>
+      <c r="F9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>467</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
+        <v>447</v>
+      </c>
+      <c r="F10" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3760,40 +4425,31 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA6ABA5-53DE-4286-B6CD-622F7F8023C1}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB896E98-11E6-41A5-AD28-910EFB397851}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="21"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="I1" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -3813,28 +4469,19 @@
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -3842,51 +4489,130 @@
       <c r="G3" t="s">
         <v>175</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
       </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -3899,25 +4625,28 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CEFFC5-3817-4B67-9183-C734F7DF74BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA6ABA5-53DE-4286-B6CD-622F7F8023C1}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="21"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3927,7 +4656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3950,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>41</v>
@@ -3959,22 +4688,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
+      <c r="G3" t="s">
+        <v>175</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -3985,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3996,15 +4728,18 @@
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="G4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -4013,28 +4748,31 @@
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E6" t="s">
+        <v>490</v>
+      </c>
+      <c r="G6" t="s">
+        <v>491</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4046,14 +4784,161 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CEFFC5-3817-4B67-9183-C734F7DF74BC}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050D4D1A-50D8-4F2C-AC04-93964DE080C1}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
@@ -4068,11 +4953,11 @@
     <col min="16" max="16" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
         <v>198</v>
       </c>
@@ -4084,7 +4969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4131,7 +5016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4175,7 +5060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -4192,12 +5077,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>71</v>
@@ -4206,67 +5091,67 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
-        <v>380</v>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23" t="s">
+        <v>366</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="b">
@@ -4276,7 +5161,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -4290,7 +5175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -4304,7 +5189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -4321,16 +5206,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -4353,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -4373,7 +5258,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -4390,12 +5275,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C17" t="s">
         <v>190</v>
@@ -4407,7 +5292,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -4421,7 +5306,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -4448,30 +5333,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258ADBF-E590-4588-BBC4-C5B7FD4237CE}">
-  <dimension ref="A1:G9"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17123E4-01B7-4962-A908-784EA0A6EB47}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D1" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4494,12 +5381,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -4514,302 +5401,122 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" t="s">
         <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B7" t="s">
-        <v>444</v>
-      </c>
-      <c r="C7" t="s">
-        <v>445</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>352</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17123E4-01B7-4962-A908-784EA0A6EB47}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C11" t="s">
-        <v>254</v>
-      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4821,29 +5528,29 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC88C87E-3684-4627-8A9C-23D034EE00E1}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258ADBF-E590-4588-BBC4-C5B7FD4237CE}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4866,12 +5573,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -4886,29 +5593,29 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -4917,52 +5624,72 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -4975,14 +5702,171 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC88C87E-3684-4627-8A9C-23D034EE00E1}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA71358-18BB-4801-96A6-46744A3F4698}">
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
@@ -4992,12 +5876,12 @@
     <col min="6" max="8" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -5020,7 +5904,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>126</v>
@@ -5038,7 +5922,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" t="s">
         <v>127</v>
@@ -5047,7 +5931,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33">
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" t="s">
         <v>125</v>
@@ -5056,7 +5940,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33">
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>162</v>
@@ -5065,7 +5949,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -5079,7 +5963,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" t="s">
         <v>129</v>
@@ -5088,7 +5972,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -5102,7 +5986,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -5116,12 +6000,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>133</v>
       </c>
@@ -5129,7 +6013,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -5143,12 +6027,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>134</v>
       </c>
@@ -5156,7 +6040,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -5167,7 +6051,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -5181,7 +6065,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="13"/>
       <c r="C26" t="s">
         <v>137</v>
@@ -5190,7 +6074,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -5201,12 +6085,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -5220,7 +6104,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -5234,7 +6118,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -5248,7 +6132,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -5262,7 +6146,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -5273,37 +6157,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
       <c r="C38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
       <c r="C40" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
       <c r="C41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
       <c r="C42" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
       <c r="C43" t="s">
         <v>148</v>
@@ -5312,7 +6196,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -5326,7 +6210,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>164</v>
       </c>
@@ -5337,7 +6221,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -5348,49 +6232,49 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="16"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="16"/>
       <c r="C51" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="16"/>
       <c r="C52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="16"/>
       <c r="C53" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" s="16"/>
       <c r="C54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="16"/>
       <c r="C55" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="16"/>
       <c r="C56" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" s="16"/>
       <c r="C57" t="s">
         <v>153</v>
@@ -5399,25 +6283,25 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="16"/>
       <c r="C58" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="16"/>
       <c r="C59" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="16"/>
       <c r="C60" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -5428,19 +6312,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="17"/>
       <c r="C64" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" t="s">
         <v>157</v>
@@ -5449,12 +6333,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -5468,7 +6352,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -5488,7 +6372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD282D77-3B58-4543-85E7-73C122E60DCD}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -5496,14 +6380,14 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -5514,7 +6398,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>105</v>
       </c>
@@ -5522,27 +6406,27 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -5553,12 +6437,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -5569,7 +6453,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>210</v>
       </c>
@@ -5577,22 +6461,22 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>184</v>
       </c>
@@ -5603,22 +6487,22 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>142</v>
       </c>
@@ -5626,7 +6510,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -5637,7 +6521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -5648,42 +6532,42 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>226</v>
       </c>
@@ -5696,30 +6580,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97158BD8-4E11-4D28-8123-BBD807473609}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5742,12 +6626,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -5762,9 +6646,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -5782,26 +6666,29 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -5813,15 +6700,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -5830,43 +6717,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B11" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" t="s">
-        <v>254</v>
-      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5885,7 +6771,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
@@ -5896,20 +6782,20 @@
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5932,12 +6818,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -5946,18 +6832,18 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -5966,15 +6852,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -5983,15 +6869,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -6014,25 +6900,25 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -6055,12 +6941,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -6075,12 +6961,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -6089,29 +6975,29 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -6120,12 +7006,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -6133,19 +7019,25 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -6159,28 +7051,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A4047F-A347-4082-B586-F7722B1A95BA}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -6203,12 +7095,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -6223,9 +7115,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -6237,15 +7129,15 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -6254,49 +7146,63 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>452</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>455</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6312,11 +7218,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C05AF-7E12-4759-946A-692EA3490646}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
@@ -6335,13 +7241,13 @@
     <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -6351,7 +7257,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -6404,7 +7310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6454,12 +7360,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -6468,67 +7374,67 @@
         <v>37</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="18" t="s">
-        <v>321</v>
-      </c>
       <c r="B5" s="18" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -6536,18 +7442,18 @@
         <v>47</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -6559,18 +7465,18 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18">
@@ -6578,7 +7484,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -6586,36 +7492,36 @@
         <v>45</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="G12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C13" t="s">
         <v>81</v>
@@ -6623,37 +7529,40 @@
       <c r="D13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="F13" s="18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C14" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18">
@@ -6661,23 +7570,23 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="18">
-        <v>0</v>
+      <c r="F16" s="18" t="s">
+        <v>479</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -6691,27 +7600,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758EED46-A08E-4A61-BE27-B63BEC3B529A}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
         <v>171</v>
       </c>
@@ -6720,8 +7629,8 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -6743,15 +7652,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>317</v>
+    <row r="3" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>457</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>493</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -6759,58 +7668,617 @@
       <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>319</v>
+      <c r="G3" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>458</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>314</v>
+        <v>485</v>
+      </c>
+      <c r="F4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>460</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="29"/>
+      <c r="B51" s="30"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="29"/>
+      <c r="B53" s="30"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="29"/>
+      <c r="B54" s="30"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="29"/>
+      <c r="B58" s="30"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="29"/>
+      <c r="B59" s="30"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="29"/>
+      <c r="B60" s="30"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="29"/>
+      <c r="B61" s="30"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="29"/>
+      <c r="B65" s="30"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="29"/>
+      <c r="B66" s="30"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="29"/>
+      <c r="B67" s="30"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="29"/>
+      <c r="B68" s="30"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="29"/>
+      <c r="B70" s="30"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="29"/>
+      <c r="B71" s="30"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="29"/>
+      <c r="B72" s="30"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="29"/>
+      <c r="B73" s="30"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="29"/>
+      <c r="B74" s="30"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="29"/>
+      <c r="B75" s="30"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="29"/>
+      <c r="B76" s="30"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="29"/>
+      <c r="B77" s="30"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="29"/>
+      <c r="B78" s="30"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="29"/>
+      <c r="B79" s="30"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="29"/>
+      <c r="B80" s="30"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="29"/>
+      <c r="B81" s="30"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="29"/>
+      <c r="B82" s="30"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="29"/>
+      <c r="B83" s="30"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="29"/>
+      <c r="B84" s="30"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="29"/>
+      <c r="B85" s="30"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="29"/>
+      <c r="B86" s="30"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="29"/>
+      <c r="B87" s="30"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="29"/>
+      <c r="B88" s="30"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="29"/>
+      <c r="B89" s="30"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="29"/>
+      <c r="B90" s="30"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="29"/>
+      <c r="B91" s="30"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="29"/>
+      <c r="B92" s="30"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="29"/>
+      <c r="B93" s="30"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="29"/>
+      <c r="B94" s="30"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="29"/>
+      <c r="B95" s="30"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="29"/>
+      <c r="B96" s="30"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="29"/>
+      <c r="B97" s="30"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="29"/>
+      <c r="B98" s="30"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="29"/>
+      <c r="B99" s="30"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="29"/>
+      <c r="B100" s="30"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="29"/>
+      <c r="B101" s="30"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="29"/>
+      <c r="B102" s="30"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="29"/>
+      <c r="B103" s="30"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="29"/>
+      <c r="B104" s="30"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="29"/>
+      <c r="B105" s="30"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="29"/>
+      <c r="B106" s="30"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="29"/>
+      <c r="B107" s="30"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="29"/>
+      <c r="B108" s="30"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="29"/>
+      <c r="B109" s="30"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="29"/>
+      <c r="B110" s="30"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="29"/>
+      <c r="B111" s="30"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="29"/>
+      <c r="B112" s="30"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="29"/>
+      <c r="B113" s="30"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="29"/>
+      <c r="B114" s="30"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="29"/>
+      <c r="B115" s="30"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="29"/>
+      <c r="B116" s="30"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="29"/>
+      <c r="B117" s="30"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="29"/>
+      <c r="B118" s="30"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="29"/>
+      <c r="B119" s="30"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="29"/>
+      <c r="B120" s="30"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="29"/>
+      <c r="B121" s="30"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="29"/>
+      <c r="B122" s="30"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="29"/>
+      <c r="B123" s="30"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="29"/>
+      <c r="B124" s="30"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="29"/>
+      <c r="B125" s="30"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="29"/>
+      <c r="B126" s="30"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="29"/>
+      <c r="B127" s="30"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="29"/>
+      <c r="B128" s="30"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="29"/>
+      <c r="B129" s="30"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="29"/>
+      <c r="B130" s="30"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="29"/>
+      <c r="B131" s="30"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="29"/>
+      <c r="B132" s="30"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="29"/>
+      <c r="B133" s="30"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="29"/>
+      <c r="B134" s="30"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="29"/>
+      <c r="B135" s="30"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="29"/>
+      <c r="B136" s="30"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="29"/>
+      <c r="B137" s="30"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="29"/>
+      <c r="B138" s="30"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="29"/>
+      <c r="B139" s="30"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="29"/>
+      <c r="B140" s="30"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="29"/>
+      <c r="B141" s="30"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="29"/>
+      <c r="B142" s="30"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="29"/>
+      <c r="B143" s="30"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="29"/>
+      <c r="B144" s="30"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="29"/>
+      <c r="B145" s="30"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="29"/>
+      <c r="B146" s="30"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="29"/>
+      <c r="B147" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6822,135 +8290,828 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A792E0B4-3461-4F02-B828-3516C74AB385}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9339702F-89A4-44B8-BC94-20FAB1C085DC}">
+  <dimension ref="B2:K72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9" style="26"/>
+    <col min="3" max="3" width="10.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.625" style="32" customWidth="1"/>
+    <col min="5" max="6" width="9" style="26"/>
+    <col min="7" max="7" width="2.625" style="32" customWidth="1"/>
+    <col min="8" max="9" width="9" style="26"/>
+    <col min="10" max="10" width="9" style="33"/>
+    <col min="11" max="11" width="18.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="21" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="E2" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="H2" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="K2" s="34"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="26">
+        <v>10</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="E3" s="26">
+        <v>10</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="H3" s="35">
+        <v>10</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="26">
+        <v>20</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="E4" s="26">
+        <v>20</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="41">
+        <v>20</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H29" s="27">
+        <v>30</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H37" s="41">
+        <v>40</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="J37" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="K39" s="37" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="K40" s="40" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H41" s="27">
         <v>50</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
+      <c r="I41" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H45" s="41">
+        <v>60</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="J45" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="K45" s="43" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="46" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="K46" s="37" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="K47" s="37" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="K48" s="37" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="K50" s="37" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="K51" s="37" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="K52" s="37" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="K53" s="37" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="K54" s="37" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="K55" s="37" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="K56" s="40" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H57" s="41">
+        <v>70</v>
+      </c>
+      <c r="I57" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="J57" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="K57" s="43" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="K58" s="37" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="K59" s="37" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="K60" s="37" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="K61" s="37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="K62" s="37" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="K63" s="37" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="64" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="K64" s="40" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H65" s="27">
+        <v>80</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="J65" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="K66" s="26" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="K67" s="26" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="K68" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="K69" s="26" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="K70" s="26" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="K71" s="26" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="K72" s="26" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="20">
+    <mergeCell ref="H65:H72"/>
+    <mergeCell ref="I65:I72"/>
+    <mergeCell ref="H41:H44"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="H45:H56"/>
+    <mergeCell ref="I45:I56"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="I57:I64"/>
+    <mergeCell ref="H20:H28"/>
+    <mergeCell ref="I20:I28"/>
+    <mergeCell ref="H29:H36"/>
+    <mergeCell ref="I29:I36"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I3:I19"/>
+    <mergeCell ref="H3:H19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J3:J19 J20:J28 J29:J36 J37:J44 J45:J72" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>